--- a/Governeye/src/config/Core.xlsx
+++ b/Governeye/src/config/Core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2745" windowWidth="22365" windowHeight="10800" tabRatio="680" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="3165" windowWidth="20730" windowHeight="10380" tabRatio="680" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Suite1" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,18 @@
     <sheet name="LoginTest1" sheetId="13" r:id="rId7"/>
     <sheet name="demotours" sheetId="14" r:id="rId8"/>
     <sheet name="Post" sheetId="15" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId10"/>
+    <sheet name="Moderator" sheetId="16" r:id="rId10"/>
+    <sheet name="Logout" sheetId="17" r:id="rId11"/>
+    <sheet name="Forgot" sheetId="18" r:id="rId12"/>
+    <sheet name="updateimg" sheetId="19" r:id="rId13"/>
+    <sheet name="changepass" sheetId="20" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="241">
   <si>
     <t>TCID</t>
   </si>
@@ -76,9 +80,6 @@
     <t>Wait10K</t>
   </si>
   <si>
-    <t>Click on Sign in button</t>
-  </si>
-  <si>
     <t>typekeys</t>
   </si>
   <si>
@@ -136,9 +137,6 @@
     <t>Select the options from provided list</t>
   </si>
   <si>
-    <t>Wait 10 seconds</t>
-  </si>
-  <si>
     <t>Wait 5 seconds</t>
   </si>
   <si>
@@ -163,12 +161,6 @@
     <t>TS03</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>select day</t>
-  </si>
-  <si>
     <t>TS05</t>
   </si>
   <si>
@@ -178,36 +170,18 @@
     <t>TS07</t>
   </si>
   <si>
-    <t>select_number</t>
-  </si>
-  <si>
     <t>select</t>
   </si>
   <si>
-    <t>select month</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>repassword</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
-    <t>mobileno</t>
-  </si>
-  <si>
-    <t>contbutton</t>
-  </si>
-  <si>
     <t>TS08</t>
   </si>
   <si>
@@ -229,27 +203,9 @@
     <t>TS14</t>
   </si>
   <si>
-    <t>re password</t>
-  </si>
-  <si>
-    <t>mobile no</t>
-  </si>
-  <si>
-    <t>continue button</t>
-  </si>
-  <si>
     <t>TS15</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>select year</t>
-  </si>
-  <si>
-    <t>input_number</t>
-  </si>
-  <si>
     <t>TS16</t>
   </si>
   <si>
@@ -259,27 +215,6 @@
     <t>TS18</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>occupation</t>
-  </si>
-  <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>income</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>createaccount</t>
-  </si>
-  <si>
     <t>TS19</t>
   </si>
   <si>
@@ -442,9 +377,6 @@
     <t>Post</t>
   </si>
   <si>
-    <t>Click on post section</t>
-  </si>
-  <si>
     <t>postsection</t>
   </si>
   <si>
@@ -511,46 +443,313 @@
     <t>TS26</t>
   </si>
   <si>
+    <t>Click on add Video</t>
+  </si>
+  <si>
+    <t>attachvideo</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>videofilelocation</t>
+  </si>
+  <si>
+    <t>Postvideotext</t>
+  </si>
+  <si>
+    <t>Enter the videotext to share</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>loader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait 5 min </t>
+  </si>
+  <si>
+    <t>waitvisible</t>
+  </si>
+  <si>
+    <t>Wait for 10 seconds</t>
+  </si>
+  <si>
+    <t>Moderator</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Click on logoutbutton</t>
+  </si>
+  <si>
+    <t>verifyTextOnpage</t>
+  </si>
+  <si>
+    <t>postverifytext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying link post </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying audio post </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying video post </t>
+  </si>
+  <si>
+    <t>confirmpassword</t>
+  </si>
+  <si>
+    <t>Select a security question</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>termsandcondition</t>
+  </si>
+  <si>
+    <t>Click on terms and condition</t>
+  </si>
+  <si>
+    <t>Click on register button</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>Select a Gender</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>answer1</t>
+  </si>
+  <si>
+    <t>pickExpDate</t>
+  </si>
+  <si>
+    <t>Picking the date of birth</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Picking the qualification</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>Picking state</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Picking parliament</t>
+  </si>
+  <si>
+    <t>parliament</t>
+  </si>
+  <si>
+    <t>assembly</t>
+  </si>
+  <si>
+    <t>Picking assembly</t>
+  </si>
+  <si>
+    <t>Select Region</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>punjab</t>
+  </si>
+  <si>
+    <t>Select Ministry</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>commerce</t>
+  </si>
+  <si>
+    <t>Select language</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>hindi</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>postwindow</t>
+  </si>
+  <si>
+    <t>Openpostwindow</t>
+  </si>
+  <si>
+    <t>Click on add Photo</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>attachphoto</t>
+  </si>
+  <si>
+    <t>photofilelocation</t>
+  </si>
+  <si>
+    <t>Enter the phototext to share</t>
+  </si>
+  <si>
+    <t>Postphototext</t>
+  </si>
+  <si>
     <t>TS27</t>
   </si>
   <si>
-    <t>Click on add Video</t>
-  </si>
-  <si>
-    <t>attachvideo</t>
-  </si>
-  <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t>videofilelocation</t>
-  </si>
-  <si>
-    <t>Postvideotext</t>
-  </si>
-  <si>
-    <t>Enter the videotext to share</t>
-  </si>
-  <si>
-    <t>waitinvisible</t>
-  </si>
-  <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>loader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait 5 min </t>
-  </si>
-  <si>
     <t>TS28</t>
   </si>
   <si>
     <t>TS29</t>
   </si>
   <si>
-    <t>waitvisible</t>
+    <t>Forgot</t>
+  </si>
+  <si>
+    <t>Click on forgot password</t>
+  </si>
+  <si>
+    <t>forgot</t>
+  </si>
+  <si>
+    <t>Enter the username</t>
+  </si>
+  <si>
+    <t>forgotusername</t>
+  </si>
+  <si>
+    <t>Click to go to next question</t>
+  </si>
+  <si>
+    <t>forgotclick</t>
+  </si>
+  <si>
+    <t>Enter the answer</t>
+  </si>
+  <si>
+    <t>forgotanswer</t>
+  </si>
+  <si>
+    <t>Click to change</t>
+  </si>
+  <si>
+    <t>forgotclick1</t>
+  </si>
+  <si>
+    <t>newpassword</t>
+  </si>
+  <si>
+    <t>Enter the new password</t>
+  </si>
+  <si>
+    <t>Enter the confirmed password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save </t>
+  </si>
+  <si>
+    <t>forgotclick2</t>
+  </si>
+  <si>
+    <t>confirmpassword1</t>
+  </si>
+  <si>
+    <t>updateimg</t>
+  </si>
+  <si>
+    <t>sidemenu</t>
+  </si>
+  <si>
+    <t>updateimage</t>
+  </si>
+  <si>
+    <t>Click on update image</t>
+  </si>
+  <si>
+    <t>Open sidemenu</t>
+  </si>
+  <si>
+    <t>Select the image</t>
+  </si>
+  <si>
+    <t>selectimage</t>
+  </si>
+  <si>
+    <t>Click to save the image</t>
+  </si>
+  <si>
+    <t>imagefilelocation</t>
+  </si>
+  <si>
+    <t>changepass</t>
+  </si>
+  <si>
+    <t>currentpass</t>
+  </si>
+  <si>
+    <t>sidepass</t>
+  </si>
+  <si>
+    <t>Click on change password</t>
+  </si>
+  <si>
+    <t>Enter old password</t>
+  </si>
+  <si>
+    <t>Enter new password</t>
+  </si>
+  <si>
+    <t>newpass</t>
+  </si>
+  <si>
+    <t>Enter new password again</t>
+  </si>
+  <si>
+    <t>confirmpass</t>
+  </si>
+  <si>
+    <t>Click on save button</t>
+  </si>
+  <si>
+    <t>change answer</t>
+  </si>
+  <si>
+    <t>changeanswer</t>
+  </si>
+  <si>
+    <t>submitanswer</t>
   </si>
 </sst>
 </file>
@@ -936,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,46 +1160,101 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1010,229 +1264,552 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" t="s">
-        <v>153</v>
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>218</v>
+      </c>
+      <c r="F8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
       <c r="D9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>144</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1822,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1859,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1298,16 +1875,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="29" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="31" customWidth="1" collapsed="1"/>
@@ -1335,30 +1912,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,400 +1943,354 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>177</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1772,7 +2303,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,36 +2337,36 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1843,13 +2374,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1899,47 +2430,47 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1947,58 +2478,58 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2022,10 +2553,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2033,7 +2564,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2041,7 +2572,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2049,7 +2580,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2057,95 +2588,95 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2234,36 +2765,36 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2271,13 +2802,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +2857,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
@@ -2337,16 +2868,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2354,64 +2885,64 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2421,10 +2952,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,174 +2989,651 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>114</v>
+      </c>
+      <c r="F4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>112</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" t="s">
-        <v>170</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s">
+        <v>153</v>
+      </c>
+      <c r="F40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
